--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1983.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1983.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.019*"foreign" + 0.019*"import" + 0.017*"exchange" + 0.016*"bank" + 0.013*"export" + 0.012*"may" + 0.012*"currency" + 0.010*"rate" + 0.009*"payment" + 0.009*"percent"</t>
-  </si>
-  <si>
-    <t>0.002*"import" + 0.002*"bank" + 0.002*"foreign" + 0.001*"exchange" + 0.001*"may" + 0.001*"payment" + 0.001*"currency" + 0.001*"export" + 0.001*"rate" + 0.001*"account"</t>
-  </si>
-  <si>
-    <t>0.003*"foreign" + 0.002*"import" + 0.002*"bank" + 0.002*"exchange" + 0.002*"may" + 0.002*"rate" + 0.002*"payment" + 0.001*"account" + 0.001*"export" + 0.001*"currency"</t>
-  </si>
-  <si>
-    <t>0.003*"import" + 0.003*"foreign" + 0.002*"exchange" + 0.002*"export" + 0.002*"bank" + 0.002*"payment" + 0.002*"may" + 0.001*"currency" + 0.001*"rate" + 0.001*"country"</t>
-  </si>
-  <si>
-    <t>0.007*"exchange" + 0.006*"bank" + 0.006*"foreign" + 0.004*"may" + 0.004*"currency" + 0.004*"export" + 0.004*"import" + 0.003*"payment" + 0.003*"rate" + 0.002*"require"</t>
+    <t>0.052*"rate" + 0.025*"exchange" + 0.022*"dollar" + 0.020*"currency" + 0.019*"ing" + 0.016*"franc" + 0.014*"ion" + 0.014*"ly" + 0.014*"th" + 0.013*"t"</t>
+  </si>
+  <si>
+    <t>0.059*"percent" + 0.025*"year" + 0.018*"import" + 0.016*"tax" + 0.015*"december" + 0.015*"export" + 0.012*"value" + 0.011*"duty" + 0.010*"redistribution" + 0.009*"however"</t>
+  </si>
+  <si>
+    <t>0.055*"bank" + 0.035*"foreign" + 0.030*"exchange" + 0.018*"central" + 0.018*"control" + 0.015*"require" + 0.015*"approval" + 0.013*"investment" + 0.012*"capital" + 0.011*"prior"</t>
+  </si>
+  <si>
+    <t>0.074*"import" + 0.051*"export" + 0.031*"country" + 0.028*"payment" + 0.024*"license" + 0.016*"certain" + 0.016*"proceeds" + 0.015*"good" + 0.013*"u" + 0.012*"invisibles"</t>
+  </si>
+  <si>
+    <t>0.044*"may" + 0.043*"foreign" + 0.033*"account" + 0.021*"currency" + 0.020*"resident" + 0.020*"nonresident" + 0.018*"exchange" + 0.016*"fund" + 0.014*"abroad" + 0.014*"bank"</t>
   </si>
 </sst>
 </file>
